--- a/POINT.xlsx
+++ b/POINT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESIS\openai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E909E86-2C41-469B-A39B-9D6CA944839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB659AC-EFBF-4F75-88FE-773CC5D29CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1247CAA-B005-4730-A6C6-E0ECE8CA1622}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>User A</t>
   </si>
@@ -62,17 +62,23 @@
     <t>AVERAGE TOKEN USAGE</t>
   </si>
   <si>
-    <t>TOKEN USAGE - POINT THRESHOLD</t>
-  </si>
-  <si>
-    <t>POINTS</t>
+    <t>FINAL POINT</t>
+  </si>
+  <si>
+    <t>DELTA POINT (THRESHOLD-USAGE)</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>DELTA/THRESHOLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +86,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,8 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,31 +466,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5359E4C8-F43F-4F8A-9176-785332FCFFF9}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,31 +507,39 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <f>IF(B2-$B$9&lt;0,0,B2-$B$9)</f>
-        <v>1425</v>
-      </c>
-      <c r="D2">
-        <f>_xlfn.CEILING.MATH(C2/100)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>$B$9-B2</f>
+        <v>2284</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2/$B$9</f>
+        <v>0.24601464885825075</v>
+      </c>
+      <c r="E2" s="3">
+        <f>IF(B2&lt;=$B$9, 100, MAX(0, 100 - 100*(B2-$B$9)/$B$9))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">IF(B3-$B$9&lt;0,0,B3-$B$9)</f>
-        <v>4425</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="1">_xlfn.CEILING.MATH(C3/100)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C3:C6" si="0">$B$9-B3</f>
+        <v>-2716</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D6" si="1">C3/$B$9</f>
+        <v>-0.29254631624299871</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E6" si="2">IF(B3&lt;=$B$9, 100, MAX(0, 100 - 100*(B3-$B$9)/$B$9))</f>
+        <v>70.745368375700124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -502,64 +548,77 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
+        <v>6284</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.67686342093925034</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5">
+        <v>9084</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.97845756139594997</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
+        <v>-10716</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.1542438604049978</v>
+      </c>
+      <c r="E6" s="3">
+        <f>IF(B6&lt;=$B$9, 100, MAX(0, 100 - 100*(B6-$B$9)/$B$9))</f>
         <v>0</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B2:B6)</f>
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <f>B8*125/100</f>
-        <v>5575</v>
+        <f>B8*1.1</f>
+        <v>9284</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>